--- a/INTLINE/data/134/DEUSTATIS/National accounts - national disposable income years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - national disposable income years.xlsx
@@ -163,7 +163,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:35:23</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:40:56</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1428,7 @@
         <v>195.915</v>
       </c>
       <c r="AG6" t="n" s="10">
-        <v>211.26</v>
+        <v>211.636</v>
       </c>
     </row>
     <row r="7">
@@ -1529,7 +1529,7 @@
         <v>102.19</v>
       </c>
       <c r="AG7" t="n" s="10">
-        <v>103.358</v>
+        <v>104.436</v>
       </c>
     </row>
     <row r="8">
@@ -1630,7 +1630,7 @@
         <v>3461.285</v>
       </c>
       <c r="AG8" t="n" s="10">
-        <v>3678.522</v>
+        <v>3677.82</v>
       </c>
     </row>
     <row r="9">
@@ -1731,7 +1731,7 @@
         <v>658.449</v>
       </c>
       <c r="AG9" t="n" s="10">
-        <v>694.038</v>
+        <v>694.247</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1832,7 @@
         <v>2802.836</v>
       </c>
       <c r="AG10" t="n" s="10">
-        <v>2984.484</v>
+        <v>2983.573</v>
       </c>
     </row>
     <row r="11">
@@ -1933,7 +1933,7 @@
         <v>72.841</v>
       </c>
       <c r="AG11" t="n" s="10">
-        <v>79.924</v>
+        <v>76.703</v>
       </c>
     </row>
     <row r="12">
@@ -2135,7 +2135,7 @@
         <v>2754.582</v>
       </c>
       <c r="AG13" t="n" s="10">
-        <v>2936.725</v>
+        <v>2932.593</v>
       </c>
     </row>
     <row r="14">
@@ -2236,7 +2236,7 @@
         <v>292.029</v>
       </c>
       <c r="AG14" t="n" s="10">
-        <v>372.398</v>
+        <v>365.683</v>
       </c>
     </row>
     <row r="15">
@@ -2337,7 +2337,7 @@
         <v>226.346</v>
       </c>
       <c r="AG15" t="n" s="10">
-        <v>245.474</v>
+        <v>239.622</v>
       </c>
     </row>
     <row r="16">
@@ -2358,7 +2358,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:35:25&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:41:01&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - national disposable income years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - national disposable income years.xlsx
@@ -163,7 +163,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:40:56</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:32:24</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2358,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:41:01&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:32:27&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>